--- a/src/main/webapp/book/validation.xlsx
+++ b/src/main/webapp/book/validation.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33920" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validation" sheetId="1" r:id="rId1"/>
+    <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="SourceItems">source!$B$11:$B$20</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,43 +30,404 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>The discount should no be greater than 5%.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The date should not be later than the current date.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Macus</t>
-  </si>
-  <si>
-    <t>Lucas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+  <si>
+    <t>Big City, YA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P: (101) 888-8888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goggles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtotal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow helmet</t>
+  </si>
+  <si>
+    <t>(Company Name)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Company Address)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earmusffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goggles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knit hat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather jacket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discount (%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI1098324</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVOICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Term: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWASON INC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill to :</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha Dr. 12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT LIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF04A87D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF04A87D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -70,21 +435,427 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF04A87D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF04A87D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF04A87D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCE6D0"/>
+      <color rgb="FFF6F9F1"/>
+      <color rgb="FF04A87D"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -101,39 +872,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -212,176 +983,816 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.19921875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <f>VLOOKUP(F10,source!B:C,2,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <f>SUM(G10*(H10-I10))</f>
+        <v>65</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="61">
+        <v>42658</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <f>VLOOKUP(F11,source!B:C,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I11" s="63">
+        <v>0.04</v>
+      </c>
+      <c r="J11" s="26">
+        <f>SUM(G11*(H11-I11))</f>
+        <v>69.92</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="25">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <f>VLOOKUP(F12,source!B:C,2,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="I12" s="64">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="26">
+        <f>SUM(G12*(H12-I12))</f>
+        <v>149.96</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="51">
+        <v>3</v>
+      </c>
+      <c r="H13" s="52">
+        <f>VLOOKUP(F13,source!B:C,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="I13" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="52">
+        <f>SUM(G13*(H13-I13))</f>
+        <v>116.85000000000001</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="55">
+        <f>SUM(J10:J13)</f>
+        <v>401.73</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="49">
+        <f>J14*0.087</f>
+        <v>34.950510000000001</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="50">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="32"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="57">
+        <f>SUM(J14:J16)</f>
+        <v>456.68051000000003</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="8">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"30 days,60 days"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter the discount no greater than 5%." sqref="I10:I13">
+      <formula1>0</formula1>
+      <formula2>0.05</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G13">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The date should not be later than the current date." sqref="C11">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13">
+      <formula1>SourceItems</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="39"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="46">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="47">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="47">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="47">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="47">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="47">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="47">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="47">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="48">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>